--- a/docs/Registro de riscos.xlsx
+++ b/docs/Registro de riscos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Derek\Downloads\docs completos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{08A0F552-F608-495F-8B9C-92267A85D6EE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{69645206-466D-4923-AF95-D344C6834697}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Capa" sheetId="9" r:id="rId1"/>
@@ -48,10 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="93">
-  <si>
-    <t>Status</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="124">
   <si>
     <t>Responsável</t>
   </si>
@@ -69,9 +66,6 @@
   </si>
   <si>
     <t>Ação</t>
-  </si>
-  <si>
-    <t>Prior.</t>
   </si>
   <si>
     <t>Previsão Original</t>
@@ -147,9 +141,6 @@
   </si>
   <si>
     <t>Prevenir</t>
-  </si>
-  <si>
-    <t>Probabi-lidade</t>
   </si>
   <si>
     <t>Probabilidade</t>
@@ -308,25 +299,127 @@
     <t>Novos requisitos</t>
   </si>
   <si>
-    <t>Problemas com a energia elétrica</t>
-  </si>
-  <si>
-    <t>Problemas de conexão</t>
-  </si>
-  <si>
     <t>Demissão de funcionários</t>
   </si>
   <si>
     <t>Perda de arquivos</t>
   </si>
   <si>
-    <t>SM</t>
+    <t>Falta de reuniões com a equipe</t>
   </si>
   <si>
-    <t>PO</t>
+    <t>Nenhuma gestão de risco</t>
   </si>
   <si>
-    <t>Todos</t>
+    <t>Comunicação falha</t>
+  </si>
+  <si>
+    <t>Alteração no orçamento</t>
+  </si>
+  <si>
+    <t>Improdutividade</t>
+  </si>
+  <si>
+    <t>Perda da avaliação e mais trabalho nas próximas etapas do projeto.</t>
+  </si>
+  <si>
+    <t>Entregas não satisfatórias ao cliente.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O cliente não ficar satisfeito ou não ter um caminho claro </t>
+  </si>
+  <si>
+    <t>Realocação da equipe para compensar as partes faltando</t>
+  </si>
+  <si>
+    <t>Reuniões com toda equipe para discussão de soluções.</t>
+  </si>
+  <si>
+    <t>Recomeçar os arquivos perdidos ocasionando no aumento do trabalho</t>
+  </si>
+  <si>
+    <t>Falta de entendimento com a equipe para com as atividades do projeto</t>
+  </si>
+  <si>
+    <t>Realocar recursos para prosseguir com o projeto dentro do orçamento</t>
+  </si>
+  <si>
+    <t>Reorganização das tarefas</t>
+  </si>
+  <si>
+    <t>Alteração das entregas não satisfatórias</t>
+  </si>
+  <si>
+    <t>Atraso nas conclusões das atividades</t>
+  </si>
+  <si>
+    <t>Erro nas entregas</t>
+  </si>
+  <si>
+    <t>Falta de planejamento e estratégia contra riscos iminentes</t>
+  </si>
+  <si>
+    <t>Falta de comunicação entre os elementos</t>
+  </si>
+  <si>
+    <t>Alteração nas datas de entrega das atividades</t>
+  </si>
+  <si>
+    <t>Redução de orçamento e horas disponiveis.</t>
+  </si>
+  <si>
+    <t>Atraso nas entregas, retrabalho</t>
+  </si>
+  <si>
+    <t>Advertencias e punições.</t>
+  </si>
+  <si>
+    <t>Criar e tornar conhecido a gestão do risco</t>
+  </si>
+  <si>
+    <t>Reuniões frequentes</t>
+  </si>
+  <si>
+    <t>Celso Reis</t>
+  </si>
+  <si>
+    <t>Cauan Almeida</t>
+  </si>
+  <si>
+    <t>Prioridade</t>
+  </si>
+  <si>
+    <t>Domingo anterior ao fim da sprint</t>
+  </si>
+  <si>
+    <t>Após entrega do sprint</t>
+  </si>
+  <si>
+    <t>A cada 2 dias</t>
+  </si>
+  <si>
+    <t>Reuniões a cada dois dias para avaliação</t>
+  </si>
+  <si>
+    <t>1.0</t>
+  </si>
+  <si>
+    <t>Inserção de conteúdo</t>
+  </si>
+  <si>
+    <t>1.1</t>
+  </si>
+  <si>
+    <t>Revisão e inserção de informações adicionais</t>
+  </si>
+  <si>
+    <t>1.2</t>
+  </si>
+  <si>
+    <t>Cauan Almeida/Celso Reis</t>
+  </si>
+  <si>
+    <t>Finalização</t>
   </si>
 </sst>
 </file>
@@ -1147,7 +1240,7 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="113">
+  <cellXfs count="117">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="12" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1338,20 +1431,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="44" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="44" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="41" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="36" borderId="0" xfId="44" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="18" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1366,6 +1445,18 @@
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="20" xfId="58" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="44" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="12" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1389,16 +1480,18 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="44" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="44" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="44" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="44" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="41" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="36" borderId="0" xfId="44" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="12" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
@@ -1412,6 +1505,18 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="36" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="24" fillId="0" borderId="1" xfId="44" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="21" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="21" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="60">
@@ -1476,30 +1581,27 @@
     <cellStyle name="Título 4" xfId="35" builtinId="19" customBuiltin="1"/>
     <cellStyle name="Total" xfId="42" builtinId="25" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="29">
+  <dxfs count="44">
     <dxf>
+      <font>
+        <color indexed="9"/>
+      </font>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFF00"/>
+          <bgColor indexed="62"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
+      <font>
+        <color indexed="10"/>
+      </font>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
+      <font>
+        <color indexed="17"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -1534,66 +1636,6 @@
     </dxf>
     <dxf>
       <font>
-        <color indexed="8"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor indexed="34"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor indexed="10"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color indexed="9"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor indexed="18"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color indexed="8"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor indexed="34"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor indexed="10"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color indexed="9"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor indexed="18"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color indexed="9"/>
       </font>
       <fill>
@@ -1602,6 +1644,16 @@
           <bgColor indexed="62"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="17"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -1625,26 +1677,160 @@
       </font>
     </dxf>
     <dxf>
+      <font>
+        <color indexed="9"/>
+      </font>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFF00"/>
+          <bgColor indexed="62"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="17"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="9"/>
+      </font>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor rgb="FF00B050"/>
+          <bgColor indexed="62"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="17"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="9"/>
+      </font>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor rgb="FFFF0000"/>
+          <bgColor indexed="62"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="17"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="9"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor indexed="62"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="17"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="9"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor indexed="62"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="17"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="9"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor indexed="62"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="17"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="9"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor indexed="62"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="17"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="9"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor indexed="62"/>
         </patternFill>
       </fill>
     </dxf>
@@ -10229,7 +10415,7 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Diagram 1">
+        <xdr:cNvPr id="7" name="Diagram 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
@@ -10574,8 +10760,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:T63"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView showGridLines="0" topLeftCell="A10" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="0" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.25"/>
@@ -10601,7 +10787,7 @@
     <row r="2" spans="1:10" s="59" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="54"/>
       <c r="B2" s="55" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C2" s="56"/>
       <c r="D2" s="57"/>
@@ -10611,7 +10797,7 @@
       <c r="H2" s="57"/>
       <c r="I2" s="57"/>
       <c r="J2" s="58" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10657,11 +10843,11 @@
         <v>1</v>
       </c>
       <c r="D6" s="71" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E6" s="72"/>
       <c r="F6" s="73" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="G6" s="74"/>
       <c r="H6" s="74"/>
@@ -10675,17 +10861,17 @@
         <f>C6+1</f>
         <v>2</v>
       </c>
-      <c r="D7" s="87" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="87"/>
-      <c r="F7" s="107" t="s">
-        <v>77</v>
-      </c>
-      <c r="G7" s="108"/>
-      <c r="H7" s="108"/>
-      <c r="I7" s="108"/>
-      <c r="J7" s="108"/>
+      <c r="D7" s="105" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="105"/>
+      <c r="F7" s="92" t="s">
+        <v>74</v>
+      </c>
+      <c r="G7" s="93"/>
+      <c r="H7" s="93"/>
+      <c r="I7" s="93"/>
+      <c r="J7" s="93"/>
     </row>
     <row r="8" spans="1:10" s="75" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="68"/>
@@ -10693,12 +10879,12 @@
       <c r="C8" s="70">
         <v>3</v>
       </c>
-      <c r="D8" s="87" t="s">
-        <v>49</v>
-      </c>
-      <c r="E8" s="87"/>
+      <c r="D8" s="105" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" s="105"/>
       <c r="F8" s="73" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G8" s="72"/>
       <c r="H8" s="74"/>
@@ -10712,11 +10898,11 @@
         <v>4</v>
       </c>
       <c r="D9" s="71" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E9" s="72"/>
       <c r="F9" s="73" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G9" s="72"/>
       <c r="H9" s="74"/>
@@ -10760,48 +10946,48 @@
     <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="14" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B14" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C14" s="105" t="s">
-        <v>47</v>
-      </c>
-      <c r="D14" s="105"/>
-      <c r="E14" s="105"/>
-      <c r="F14" s="105"/>
+        <v>48</v>
+      </c>
+      <c r="C14" s="94" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" s="94"/>
+      <c r="E14" s="94"/>
+      <c r="F14" s="94"/>
     </row>
     <row r="15" spans="1:10" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="82" t="s">
-        <v>43</v>
-      </c>
-      <c r="C15" s="97" t="s">
-        <v>44</v>
-      </c>
-      <c r="D15" s="98"/>
-      <c r="E15" s="98"/>
-      <c r="F15" s="99"/>
-      <c r="G15" s="100" t="s">
-        <v>45</v>
-      </c>
-      <c r="H15" s="100"/>
-      <c r="I15" s="101" t="s">
-        <v>10</v>
-      </c>
-      <c r="J15" s="101"/>
+        <v>40</v>
+      </c>
+      <c r="C15" s="95" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15" s="96"/>
+      <c r="E15" s="96"/>
+      <c r="F15" s="97"/>
+      <c r="G15" s="98" t="s">
+        <v>42</v>
+      </c>
+      <c r="H15" s="98"/>
+      <c r="I15" s="99" t="s">
+        <v>8</v>
+      </c>
+      <c r="J15" s="99"/>
     </row>
     <row r="16" spans="1:10" s="2" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="83">
         <v>1</v>
       </c>
-      <c r="C16" s="92" t="s">
-        <v>46</v>
-      </c>
-      <c r="D16" s="93"/>
-      <c r="E16" s="93"/>
-      <c r="F16" s="94"/>
-      <c r="G16" s="95" t="s">
-        <v>11</v>
-      </c>
-      <c r="H16" s="96"/>
+      <c r="C16" s="86" t="s">
+        <v>43</v>
+      </c>
+      <c r="D16" s="87"/>
+      <c r="E16" s="87"/>
+      <c r="F16" s="88"/>
+      <c r="G16" s="89" t="s">
+        <v>9</v>
+      </c>
+      <c r="H16" s="90"/>
       <c r="I16" s="91"/>
       <c r="J16" s="91"/>
     </row>
@@ -10810,16 +10996,16 @@
         <f>B16+1</f>
         <v>2</v>
       </c>
-      <c r="C17" s="92" t="s">
-        <v>48</v>
-      </c>
-      <c r="D17" s="93"/>
-      <c r="E17" s="93"/>
-      <c r="F17" s="94"/>
-      <c r="G17" s="95" t="s">
-        <v>11</v>
-      </c>
-      <c r="H17" s="96"/>
+      <c r="C17" s="86" t="s">
+        <v>45</v>
+      </c>
+      <c r="D17" s="87"/>
+      <c r="E17" s="87"/>
+      <c r="F17" s="88"/>
+      <c r="G17" s="89" t="s">
+        <v>9</v>
+      </c>
+      <c r="H17" s="90"/>
       <c r="I17" s="91"/>
       <c r="J17" s="91"/>
     </row>
@@ -10828,77 +11014,77 @@
         <f>B17+1</f>
         <v>3</v>
       </c>
-      <c r="C18" s="92" t="s">
-        <v>50</v>
-      </c>
-      <c r="D18" s="93"/>
-      <c r="E18" s="93"/>
-      <c r="F18" s="94"/>
-      <c r="G18" s="95" t="s">
-        <v>49</v>
-      </c>
-      <c r="H18" s="96"/>
+      <c r="C18" s="86" t="s">
+        <v>47</v>
+      </c>
+      <c r="D18" s="87"/>
+      <c r="E18" s="87"/>
+      <c r="F18" s="88"/>
+      <c r="G18" s="89" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" s="90"/>
       <c r="I18" s="91"/>
       <c r="J18" s="91"/>
     </row>
     <row r="19" spans="2:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="C19" s="102"/>
-      <c r="D19" s="102"/>
-      <c r="E19" s="102"/>
-      <c r="F19" s="102"/>
-      <c r="G19" s="103"/>
-      <c r="H19" s="103"/>
-      <c r="I19" s="104"/>
-      <c r="J19" s="104"/>
+      <c r="C19" s="100"/>
+      <c r="D19" s="100"/>
+      <c r="E19" s="100"/>
+      <c r="F19" s="100"/>
+      <c r="G19" s="101"/>
+      <c r="H19" s="101"/>
+      <c r="I19" s="102"/>
+      <c r="J19" s="102"/>
     </row>
     <row r="20" spans="2:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B20" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C20" s="105" t="s">
-        <v>52</v>
-      </c>
-      <c r="D20" s="105"/>
-      <c r="E20" s="105"/>
-      <c r="F20" s="105"/>
-      <c r="G20" s="106"/>
-      <c r="H20" s="106"/>
-      <c r="I20" s="104"/>
-      <c r="J20" s="104"/>
+        <v>48</v>
+      </c>
+      <c r="C20" s="94" t="s">
+        <v>49</v>
+      </c>
+      <c r="D20" s="94"/>
+      <c r="E20" s="94"/>
+      <c r="F20" s="94"/>
+      <c r="G20" s="103"/>
+      <c r="H20" s="103"/>
+      <c r="I20" s="102"/>
+      <c r="J20" s="102"/>
     </row>
     <row r="21" spans="2:10" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B21" s="82" t="s">
-        <v>43</v>
-      </c>
-      <c r="C21" s="97" t="s">
-        <v>44</v>
-      </c>
-      <c r="D21" s="98"/>
-      <c r="E21" s="98"/>
-      <c r="F21" s="99"/>
-      <c r="G21" s="100" t="s">
-        <v>45</v>
-      </c>
-      <c r="H21" s="100"/>
-      <c r="I21" s="101" t="s">
-        <v>10</v>
-      </c>
-      <c r="J21" s="101"/>
+        <v>40</v>
+      </c>
+      <c r="C21" s="95" t="s">
+        <v>41</v>
+      </c>
+      <c r="D21" s="96"/>
+      <c r="E21" s="96"/>
+      <c r="F21" s="97"/>
+      <c r="G21" s="98" t="s">
+        <v>42</v>
+      </c>
+      <c r="H21" s="98"/>
+      <c r="I21" s="99" t="s">
+        <v>8</v>
+      </c>
+      <c r="J21" s="99"/>
     </row>
     <row r="22" spans="2:10" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="83">
         <v>1</v>
       </c>
-      <c r="C22" s="92" t="s">
-        <v>53</v>
-      </c>
-      <c r="D22" s="93"/>
-      <c r="E22" s="93"/>
-      <c r="F22" s="94"/>
-      <c r="G22" s="95" t="s">
-        <v>55</v>
-      </c>
-      <c r="H22" s="96"/>
+      <c r="C22" s="86" t="s">
+        <v>50</v>
+      </c>
+      <c r="D22" s="87"/>
+      <c r="E22" s="87"/>
+      <c r="F22" s="88"/>
+      <c r="G22" s="89" t="s">
+        <v>52</v>
+      </c>
+      <c r="H22" s="90"/>
       <c r="I22" s="91"/>
       <c r="J22" s="91"/>
     </row>
@@ -10907,16 +11093,16 @@
         <f>B22+1</f>
         <v>2</v>
       </c>
-      <c r="C23" s="92" t="s">
-        <v>56</v>
-      </c>
-      <c r="D23" s="93"/>
-      <c r="E23" s="93"/>
-      <c r="F23" s="94"/>
-      <c r="G23" s="95" t="s">
-        <v>54</v>
-      </c>
-      <c r="H23" s="96"/>
+      <c r="C23" s="86" t="s">
+        <v>53</v>
+      </c>
+      <c r="D23" s="87"/>
+      <c r="E23" s="87"/>
+      <c r="F23" s="88"/>
+      <c r="G23" s="89" t="s">
+        <v>51</v>
+      </c>
+      <c r="H23" s="90"/>
       <c r="I23" s="91"/>
       <c r="J23" s="91"/>
     </row>
@@ -10925,16 +11111,16 @@
         <f>B23+1</f>
         <v>3</v>
       </c>
-      <c r="C24" s="92" t="s">
-        <v>57</v>
-      </c>
-      <c r="D24" s="93"/>
-      <c r="E24" s="93"/>
-      <c r="F24" s="94"/>
-      <c r="G24" s="95" t="s">
-        <v>11</v>
-      </c>
-      <c r="H24" s="96"/>
+      <c r="C24" s="86" t="s">
+        <v>54</v>
+      </c>
+      <c r="D24" s="87"/>
+      <c r="E24" s="87"/>
+      <c r="F24" s="88"/>
+      <c r="G24" s="89" t="s">
+        <v>9</v>
+      </c>
+      <c r="H24" s="90"/>
       <c r="I24" s="91"/>
       <c r="J24" s="91"/>
     </row>
@@ -10943,12 +11129,12 @@
         <f>B24+1</f>
         <v>4</v>
       </c>
-      <c r="C25" s="90"/>
-      <c r="D25" s="90"/>
-      <c r="E25" s="90"/>
-      <c r="F25" s="90"/>
-      <c r="G25" s="90"/>
-      <c r="H25" s="90"/>
+      <c r="C25" s="108"/>
+      <c r="D25" s="108"/>
+      <c r="E25" s="108"/>
+      <c r="F25" s="108"/>
+      <c r="G25" s="108"/>
+      <c r="H25" s="108"/>
       <c r="I25" s="91"/>
       <c r="J25" s="91"/>
     </row>
@@ -10957,103 +11143,127 @@
     </row>
     <row r="27" spans="2:10" ht="15.75" x14ac:dyDescent="0.25"/>
     <row r="28" spans="2:10" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="B28" s="88" t="s">
-        <v>69</v>
-      </c>
-      <c r="C28" s="88"/>
-      <c r="D28" s="88"/>
-      <c r="E28" s="88"/>
-      <c r="F28" s="88"/>
-      <c r="G28" s="88"/>
-      <c r="H28" s="88"/>
-      <c r="I28" s="88"/>
-      <c r="J28" s="88"/>
+      <c r="B28" s="106" t="s">
+        <v>66</v>
+      </c>
+      <c r="C28" s="106"/>
+      <c r="D28" s="106"/>
+      <c r="E28" s="106"/>
+      <c r="F28" s="106"/>
+      <c r="G28" s="106"/>
+      <c r="H28" s="106"/>
+      <c r="I28" s="106"/>
+      <c r="J28" s="106"/>
     </row>
     <row r="29" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B29" s="50" t="s">
+        <v>67</v>
+      </c>
+      <c r="C29" s="50" t="s">
+        <v>68</v>
+      </c>
+      <c r="D29" s="50" t="s">
+        <v>69</v>
+      </c>
+      <c r="E29" s="107" t="s">
         <v>70</v>
       </c>
-      <c r="C29" s="50" t="s">
-        <v>71</v>
-      </c>
-      <c r="D29" s="50" t="s">
-        <v>72</v>
-      </c>
-      <c r="E29" s="89" t="s">
-        <v>73</v>
-      </c>
-      <c r="F29" s="89"/>
-      <c r="G29" s="89"/>
-      <c r="H29" s="89"/>
-      <c r="I29" s="89"/>
-      <c r="J29" s="89"/>
+      <c r="F29" s="107"/>
+      <c r="G29" s="107"/>
+      <c r="H29" s="107"/>
+      <c r="I29" s="107"/>
+      <c r="J29" s="107"/>
     </row>
     <row r="30" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B30" s="84"/>
-      <c r="C30" s="84"/>
-      <c r="D30" s="85"/>
-      <c r="E30" s="86"/>
-      <c r="F30" s="86"/>
-      <c r="G30" s="86"/>
-      <c r="H30" s="86"/>
-      <c r="I30" s="86"/>
-      <c r="J30" s="86"/>
+      <c r="B30" s="84" t="s">
+        <v>117</v>
+      </c>
+      <c r="C30" s="114">
+        <v>44084</v>
+      </c>
+      <c r="D30" s="85" t="s">
+        <v>111</v>
+      </c>
+      <c r="E30" s="104" t="s">
+        <v>118</v>
+      </c>
+      <c r="F30" s="104"/>
+      <c r="G30" s="104"/>
+      <c r="H30" s="104"/>
+      <c r="I30" s="104"/>
+      <c r="J30" s="104"/>
     </row>
     <row r="31" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B31" s="84"/>
-      <c r="C31" s="84"/>
-      <c r="D31" s="85"/>
-      <c r="E31" s="86"/>
-      <c r="F31" s="86"/>
-      <c r="G31" s="86"/>
-      <c r="H31" s="86"/>
-      <c r="I31" s="86"/>
-      <c r="J31" s="86"/>
+      <c r="B31" s="84" t="s">
+        <v>119</v>
+      </c>
+      <c r="C31" s="114">
+        <v>44164</v>
+      </c>
+      <c r="D31" s="85" t="s">
+        <v>111</v>
+      </c>
+      <c r="E31" s="104" t="s">
+        <v>120</v>
+      </c>
+      <c r="F31" s="104"/>
+      <c r="G31" s="104"/>
+      <c r="H31" s="104"/>
+      <c r="I31" s="104"/>
+      <c r="J31" s="104"/>
     </row>
     <row r="32" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B32" s="84"/>
-      <c r="C32" s="84"/>
-      <c r="D32" s="85"/>
-      <c r="E32" s="86"/>
-      <c r="F32" s="86"/>
-      <c r="G32" s="86"/>
-      <c r="H32" s="86"/>
-      <c r="I32" s="86"/>
-      <c r="J32" s="86"/>
+      <c r="B32" s="84" t="s">
+        <v>121</v>
+      </c>
+      <c r="C32" s="114">
+        <v>44172</v>
+      </c>
+      <c r="D32" s="85" t="s">
+        <v>122</v>
+      </c>
+      <c r="E32" s="104" t="s">
+        <v>123</v>
+      </c>
+      <c r="F32" s="104"/>
+      <c r="G32" s="104"/>
+      <c r="H32" s="104"/>
+      <c r="I32" s="104"/>
+      <c r="J32" s="104"/>
     </row>
     <row r="33" spans="2:10" ht="15.75" x14ac:dyDescent="0.25"/>
     <row r="34" spans="2:10" ht="15.75" x14ac:dyDescent="0.25"/>
     <row r="35" spans="2:10" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="B35" s="88" t="s">
-        <v>74</v>
-      </c>
-      <c r="C35" s="88"/>
-      <c r="D35" s="88"/>
-      <c r="E35" s="88"/>
-      <c r="F35" s="88"/>
-      <c r="G35" s="88"/>
-      <c r="H35" s="88"/>
-      <c r="I35" s="88"/>
-      <c r="J35" s="88"/>
+      <c r="B35" s="106" t="s">
+        <v>71</v>
+      </c>
+      <c r="C35" s="106"/>
+      <c r="D35" s="106"/>
+      <c r="E35" s="106"/>
+      <c r="F35" s="106"/>
+      <c r="G35" s="106"/>
+      <c r="H35" s="106"/>
+      <c r="I35" s="106"/>
+      <c r="J35" s="106"/>
     </row>
     <row r="36" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B36" s="50" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C36" s="50" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D36" s="50" t="s">
-        <v>75</v>
-      </c>
-      <c r="E36" s="89" t="s">
-        <v>76</v>
-      </c>
-      <c r="F36" s="89"/>
-      <c r="G36" s="89"/>
-      <c r="H36" s="89"/>
-      <c r="I36" s="89"/>
-      <c r="J36" s="89"/>
+        <v>72</v>
+      </c>
+      <c r="E36" s="107" t="s">
+        <v>73</v>
+      </c>
+      <c r="F36" s="107"/>
+      <c r="G36" s="107"/>
+      <c r="H36" s="107"/>
+      <c r="I36" s="107"/>
+      <c r="J36" s="107"/>
     </row>
     <row r="37" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B37" s="84">
@@ -11061,12 +11271,12 @@
       </c>
       <c r="C37" s="84"/>
       <c r="D37" s="85"/>
-      <c r="E37" s="86"/>
-      <c r="F37" s="86"/>
-      <c r="G37" s="86"/>
-      <c r="H37" s="86"/>
-      <c r="I37" s="86"/>
-      <c r="J37" s="86"/>
+      <c r="E37" s="104"/>
+      <c r="F37" s="104"/>
+      <c r="G37" s="104"/>
+      <c r="H37" s="104"/>
+      <c r="I37" s="104"/>
+      <c r="J37" s="104"/>
     </row>
     <row r="38" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B38" s="84">
@@ -11074,12 +11284,12 @@
       </c>
       <c r="C38" s="84"/>
       <c r="D38" s="85"/>
-      <c r="E38" s="86"/>
-      <c r="F38" s="86"/>
-      <c r="G38" s="86"/>
-      <c r="H38" s="86"/>
-      <c r="I38" s="86"/>
-      <c r="J38" s="86"/>
+      <c r="E38" s="104"/>
+      <c r="F38" s="104"/>
+      <c r="G38" s="104"/>
+      <c r="H38" s="104"/>
+      <c r="I38" s="104"/>
+      <c r="J38" s="104"/>
     </row>
     <row r="39" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B39" s="84">
@@ -11087,12 +11297,12 @@
       </c>
       <c r="C39" s="84"/>
       <c r="D39" s="85"/>
-      <c r="E39" s="86"/>
-      <c r="F39" s="86"/>
-      <c r="G39" s="86"/>
-      <c r="H39" s="86"/>
-      <c r="I39" s="86"/>
-      <c r="J39" s="86"/>
+      <c r="E39" s="104"/>
+      <c r="F39" s="104"/>
+      <c r="G39" s="104"/>
+      <c r="H39" s="104"/>
+      <c r="I39" s="104"/>
+      <c r="J39" s="104"/>
     </row>
     <row r="40" spans="2:10" ht="15.75" x14ac:dyDescent="0.25"/>
     <row r="41" spans="2:10" ht="15.75" x14ac:dyDescent="0.25"/>
@@ -11120,37 +11330,6 @@
     <row r="63" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="47">
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="F7:J7"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="I24:J24"/>
     <mergeCell ref="E39:J39"/>
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="D8:E8"/>
@@ -11167,6 +11346,37 @@
     <mergeCell ref="E29:J29"/>
     <mergeCell ref="E30:J30"/>
     <mergeCell ref="C23:F23"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="F7:J7"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="I15:J15"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D9" location="Param!A1" display="Paramêtros" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
@@ -11195,22 +11405,22 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="B1:O30"/>
+  <dimension ref="B1:O22"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+    <sheetView showGridLines="0" zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.85546875" style="6" customWidth="1"/>
     <col min="2" max="2" width="5.28515625" style="6" customWidth="1"/>
-    <col min="3" max="3" width="6.42578125" style="18" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" style="18" customWidth="1"/>
     <col min="4" max="4" width="35.42578125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="18" customWidth="1"/>
+    <col min="5" max="5" width="20.7109375" style="18" customWidth="1"/>
     <col min="6" max="6" width="13" style="18" customWidth="1"/>
     <col min="7" max="7" width="50.28515625" style="6" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" style="6" customWidth="1"/>
+    <col min="8" max="8" width="20.5703125" style="6" customWidth="1"/>
     <col min="9" max="9" width="13.28515625" style="18" customWidth="1"/>
     <col min="10" max="10" width="41.5703125" style="18" customWidth="1"/>
     <col min="11" max="11" width="14.7109375" style="6" customWidth="1"/>
@@ -11230,42 +11440,42 @@
       <c r="N1" s="19"/>
       <c r="O1" s="19"/>
     </row>
-    <row r="2" spans="2:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B2" s="36" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C2" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="37" t="s">
+      <c r="E2" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="F2" s="36" t="s">
+      <c r="G2" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="37" t="s">
+      <c r="H2" s="37" t="s">
+        <v>36</v>
+      </c>
+      <c r="I2" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="37" t="s">
-        <v>39</v>
-      </c>
-      <c r="I2" s="38" t="s">
-        <v>6</v>
-      </c>
       <c r="J2" s="36" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K2" s="36" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L2" s="36" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M2" s="36" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="2:15" ht="30" x14ac:dyDescent="0.25">
@@ -11277,25 +11487,35 @@
         <v>20</v>
       </c>
       <c r="D3" s="25" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E3" s="30" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F3" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" s="25"/>
+        <v>15</v>
+      </c>
+      <c r="G3" s="25" t="s">
+        <v>90</v>
+      </c>
       <c r="H3" s="25" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="I3" s="31" t="s">
-        <v>25</v>
-      </c>
-      <c r="J3" s="23"/>
-      <c r="K3" s="23"/>
-      <c r="L3" s="24"/>
-      <c r="M3" s="8"/>
+        <v>23</v>
+      </c>
+      <c r="J3" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="K3" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="L3" s="115">
+        <v>44144</v>
+      </c>
+      <c r="M3" s="23" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="4" spans="2:15" ht="30" x14ac:dyDescent="0.25">
       <c r="B4" s="23">
@@ -11303,33 +11523,43 @@
         <v>2</v>
       </c>
       <c r="C4" s="29">
-        <f t="shared" ref="C4:C17" si="0">IF(ISTEXT(E4),LEFT(E4,1),E4)*IF(ISTEXT(F4),LEFT(F4,1),F4)</f>
+        <f t="shared" ref="C4:C14" si="0">IF(ISTEXT(E4),LEFT(E4,1),E4)*IF(ISTEXT(F4),LEFT(F4,1),F4)</f>
         <v>25</v>
       </c>
       <c r="D4" s="23" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E4" s="30" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F4" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" s="23"/>
+        <v>15</v>
+      </c>
+      <c r="G4" s="23" t="s">
+        <v>91</v>
+      </c>
       <c r="H4" s="25" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="I4" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="J4" s="23"/>
-      <c r="K4" s="23"/>
-      <c r="L4" s="24"/>
-      <c r="M4" s="8"/>
+        <v>30</v>
+      </c>
+      <c r="J4" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="K4" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="L4" s="115">
+        <v>44151</v>
+      </c>
+      <c r="M4" s="23" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="5" spans="2:15" s="32" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B5" s="23">
-        <f t="shared" ref="B5:B22" si="1">B4+1</f>
+        <f t="shared" ref="B5:B14" si="1">B4+1</f>
         <v>3</v>
       </c>
       <c r="C5" s="29">
@@ -11337,27 +11567,37 @@
         <v>9</v>
       </c>
       <c r="D5" s="23" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E5" s="30" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F5" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" s="23"/>
+        <v>13</v>
+      </c>
+      <c r="G5" s="23" t="s">
+        <v>92</v>
+      </c>
       <c r="H5" s="25" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="I5" s="31" t="s">
-        <v>25</v>
-      </c>
-      <c r="J5" s="23"/>
-      <c r="K5" s="23"/>
-      <c r="L5" s="24"/>
-      <c r="M5" s="23"/>
+        <v>23</v>
+      </c>
+      <c r="J5" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="K5" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="L5" s="115">
+        <v>44151</v>
+      </c>
+      <c r="M5" s="23" t="s">
+        <v>114</v>
+      </c>
     </row>
-    <row r="6" spans="2:15" s="32" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:15" s="32" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="B6" s="23">
         <f t="shared" si="1"/>
         <v>4</v>
@@ -11367,27 +11607,37 @@
         <v>25</v>
       </c>
       <c r="D6" s="23" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E6" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="32" t="s">
+        <v>103</v>
+      </c>
+      <c r="H6" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="I6" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" s="23"/>
-      <c r="H6" s="25" t="s">
-        <v>36</v>
-      </c>
-      <c r="I6" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="J6" s="23"/>
-      <c r="K6" s="23"/>
-      <c r="L6" s="24"/>
-      <c r="M6" s="23"/>
+      <c r="J6" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="K6" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="L6" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="M6" s="23" t="s">
+        <v>116</v>
+      </c>
     </row>
-    <row r="7" spans="2:15" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:15" s="32" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="B7" s="23">
         <f t="shared" si="1"/>
         <v>5</v>
@@ -11397,453 +11647,445 @@
         <v>12</v>
       </c>
       <c r="D7" s="23" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E7" s="30" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F7" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="G7" s="23"/>
+        <v>13</v>
+      </c>
+      <c r="G7" s="23" t="s">
+        <v>104</v>
+      </c>
       <c r="H7" s="25" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="I7" s="31" t="s">
-        <v>25</v>
-      </c>
-      <c r="J7" s="23"/>
-      <c r="K7" s="23"/>
-      <c r="L7" s="24"/>
-      <c r="M7" s="23"/>
+        <v>22</v>
+      </c>
+      <c r="J7" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="K7" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="L7" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="M7" s="23" t="s">
+        <v>116</v>
+      </c>
     </row>
-    <row r="8" spans="2:15" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:15" s="32" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B8" s="23">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="C8" s="29">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D8" s="23" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E8" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F8" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="G8" s="23"/>
+        <v>14</v>
+      </c>
+      <c r="G8" s="32" t="s">
+        <v>105</v>
+      </c>
       <c r="H8" s="25" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="I8" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="J8" s="23"/>
-      <c r="K8" s="23"/>
-      <c r="L8" s="24"/>
-      <c r="M8" s="23"/>
+        <v>30</v>
+      </c>
+      <c r="J8" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="K8" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="L8" s="115">
+        <v>44151</v>
+      </c>
+      <c r="M8" s="23" t="s">
+        <v>114</v>
+      </c>
     </row>
-    <row r="9" spans="2:15" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:15" s="32" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="B9" s="23">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="C9" s="29">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D9" s="23" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E9" s="30" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F9" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="G9" s="23"/>
+        <v>14</v>
+      </c>
+      <c r="G9" s="23" t="s">
+        <v>106</v>
+      </c>
       <c r="H9" s="25" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="I9" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="J9" s="23"/>
-      <c r="K9" s="23"/>
-      <c r="L9" s="24"/>
-      <c r="M9" s="23"/>
+        <v>30</v>
+      </c>
+      <c r="J9" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="K9" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="L9" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="M9" s="23" t="s">
+        <v>116</v>
+      </c>
     </row>
-    <row r="10" spans="2:15" s="32" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:15" s="32" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="B10" s="23">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="C10" s="29">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D10" s="23" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E10" s="30" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F10" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="G10" s="23"/>
+        <v>13</v>
+      </c>
+      <c r="G10" s="23" t="s">
+        <v>96</v>
+      </c>
       <c r="H10" s="25" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="I10" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="J10" s="23"/>
-      <c r="K10" s="23"/>
-      <c r="L10" s="24"/>
-      <c r="M10" s="23"/>
+        <v>30</v>
+      </c>
+      <c r="J10" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="K10" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="L10" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="M10" s="23" t="s">
+        <v>116</v>
+      </c>
     </row>
-    <row r="11" spans="2:15" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:15" s="32" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B11" s="23">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="C11" s="29">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="D11" s="23" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E11" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F11" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="G11" s="23"/>
+        <v>15</v>
+      </c>
+      <c r="G11" s="23" t="s">
+        <v>102</v>
+      </c>
       <c r="H11" s="25" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="I11" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="J11" s="23"/>
-      <c r="K11" s="23"/>
-      <c r="L11" s="24"/>
-      <c r="M11" s="23"/>
+        <v>30</v>
+      </c>
+      <c r="J11" s="25" t="s">
+        <v>108</v>
+      </c>
+      <c r="K11" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="L11" s="115">
+        <v>44151</v>
+      </c>
+      <c r="M11" s="23" t="s">
+        <v>114</v>
+      </c>
     </row>
-    <row r="12" spans="2:15" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:15" s="32" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="B12" s="23">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="C12" s="29">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D12" s="23"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="23"/>
-      <c r="H12" s="25"/>
-      <c r="I12" s="31"/>
-      <c r="J12" s="25"/>
-      <c r="K12" s="25"/>
-      <c r="L12" s="24"/>
-      <c r="M12" s="23"/>
+        <v>20</v>
+      </c>
+      <c r="D12" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="E12" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="H12" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="I12" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="J12" s="113" t="s">
+        <v>109</v>
+      </c>
+      <c r="K12" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="L12" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="M12" s="23" t="s">
+        <v>116</v>
+      </c>
     </row>
-    <row r="13" spans="2:15" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:15" s="32" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="B13" s="23">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="C13" s="29">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D13" s="23"/>
-      <c r="E13" s="30"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="23"/>
-      <c r="H13" s="25"/>
-      <c r="I13" s="31"/>
-      <c r="J13" s="25"/>
-      <c r="K13" s="25"/>
-      <c r="L13" s="24"/>
-      <c r="M13" s="23"/>
+        <v>6</v>
+      </c>
+      <c r="D13" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="E13" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="H13" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="I13" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="J13" s="113" t="s">
+        <v>97</v>
+      </c>
+      <c r="K13" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="L13" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="M13" s="23" t="s">
+        <v>116</v>
+      </c>
     </row>
-    <row r="14" spans="2:15" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:15" s="32" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="B14" s="23">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="C14" s="29">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D14" s="23"/>
-      <c r="E14" s="30"/>
-      <c r="F14" s="30"/>
-      <c r="G14" s="23"/>
-      <c r="H14" s="25"/>
-      <c r="I14" s="31"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="24"/>
-      <c r="M14" s="23"/>
+        <v>12</v>
+      </c>
+      <c r="D14" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="E14" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="F14" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="G14" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="H14" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="I14" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="J14" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="K14" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="L14" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="M14" s="23" t="s">
+        <v>116</v>
+      </c>
     </row>
-    <row r="15" spans="2:15" s="32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="23">
-        <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-      <c r="C15" s="29">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D15" s="23"/>
-      <c r="E15" s="30"/>
-      <c r="F15" s="30"/>
-      <c r="G15" s="23"/>
-      <c r="H15" s="25"/>
-      <c r="I15" s="31"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="24"/>
-      <c r="M15" s="23"/>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B15" s="34"/>
+      <c r="J15" s="33"/>
     </row>
-    <row r="16" spans="2:15" s="32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="23">
-        <f t="shared" si="1"/>
-        <v>14</v>
-      </c>
-      <c r="C16" s="29">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D16" s="23"/>
-      <c r="E16" s="30"/>
-      <c r="F16" s="30"/>
-      <c r="G16" s="23"/>
-      <c r="H16" s="25"/>
-      <c r="I16" s="31"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="24"/>
-      <c r="M16" s="23"/>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="J16" s="33"/>
     </row>
-    <row r="17" spans="2:13" s="32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="23">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-      <c r="C17" s="29">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D17" s="23"/>
-      <c r="E17" s="30"/>
-      <c r="F17" s="30"/>
-      <c r="G17" s="23"/>
-      <c r="H17" s="25"/>
-      <c r="I17" s="31"/>
-      <c r="J17" s="23"/>
-      <c r="K17" s="8"/>
-      <c r="L17" s="24"/>
-      <c r="M17" s="23"/>
+    <row r="17" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J17" s="33"/>
     </row>
-    <row r="18" spans="2:13" s="32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="23">
-        <f t="shared" si="1"/>
-        <v>16</v>
-      </c>
-      <c r="C18" s="29">
-        <f t="shared" ref="C18:C22" si="2">IF(ISTEXT(E18),LEFT(E18,1),E18)*IF(ISTEXT(F18),LEFT(F18,1),F18)</f>
-        <v>0</v>
-      </c>
-      <c r="D18" s="23"/>
-      <c r="E18" s="30"/>
-      <c r="F18" s="30"/>
-      <c r="G18" s="23"/>
-      <c r="H18" s="25"/>
-      <c r="I18" s="31"/>
-      <c r="J18" s="23"/>
-      <c r="K18" s="8"/>
-      <c r="L18" s="24"/>
-      <c r="M18" s="23"/>
+    <row r="18" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J18" s="35"/>
     </row>
-    <row r="19" spans="2:13" s="32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="23">
-        <f t="shared" si="1"/>
-        <v>17</v>
-      </c>
-      <c r="C19" s="29">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="D19" s="23"/>
-      <c r="E19" s="30"/>
-      <c r="F19" s="30"/>
-      <c r="G19" s="23"/>
-      <c r="H19" s="25"/>
-      <c r="I19" s="31"/>
-      <c r="J19" s="23"/>
-      <c r="K19" s="8"/>
-      <c r="L19" s="24"/>
-      <c r="M19" s="23"/>
+    <row r="19" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J19" s="35"/>
     </row>
-    <row r="20" spans="2:13" s="32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="23">
-        <f t="shared" si="1"/>
-        <v>18</v>
-      </c>
-      <c r="C20" s="29">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="D20" s="23"/>
-      <c r="E20" s="30"/>
-      <c r="F20" s="30"/>
-      <c r="G20" s="23"/>
-      <c r="H20" s="25"/>
-      <c r="I20" s="31"/>
-      <c r="J20" s="23"/>
-      <c r="K20" s="8"/>
-      <c r="L20" s="24"/>
-      <c r="M20" s="23"/>
+    <row r="20" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J20" s="6"/>
     </row>
-    <row r="21" spans="2:13" s="32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="23">
-        <f t="shared" si="1"/>
-        <v>19</v>
-      </c>
-      <c r="C21" s="29">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="D21" s="23"/>
-      <c r="E21" s="30"/>
-      <c r="F21" s="30"/>
-      <c r="G21" s="23"/>
-      <c r="H21" s="25"/>
-      <c r="I21" s="31"/>
-      <c r="J21" s="23"/>
-      <c r="K21" s="8"/>
-      <c r="L21" s="24"/>
-      <c r="M21" s="23"/>
+    <row r="21" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J21" s="6"/>
     </row>
-    <row r="22" spans="2:13" s="32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="23">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="C22" s="29">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="D22" s="23"/>
-      <c r="E22" s="30"/>
-      <c r="F22" s="30"/>
-      <c r="G22" s="23"/>
-      <c r="H22" s="25"/>
-      <c r="I22" s="31"/>
-      <c r="J22" s="23"/>
-      <c r="K22" s="8"/>
-      <c r="L22" s="24"/>
-      <c r="M22" s="23"/>
-    </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B23" s="34"/>
-      <c r="J23" s="33"/>
-    </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="J24" s="33"/>
-    </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="J25" s="33"/>
-    </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="J26" s="35"/>
-    </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="J27" s="35"/>
-    </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="J28" s="6"/>
-    </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="J29" s="6"/>
-    </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="J30" s="6"/>
+    <row r="22" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J22" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="C3">
-    <cfRule type="cellIs" dxfId="28" priority="13" stopIfTrue="1" operator="greaterThanOrEqual">
+  <conditionalFormatting sqref="C3:C14">
+    <cfRule type="cellIs" dxfId="40" priority="46" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>15</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="14" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="39" priority="47" stopIfTrue="1" operator="lessThan">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="15" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="38" priority="48" stopIfTrue="1" operator="lessThan">
       <formula>15</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C4:C17">
-    <cfRule type="cellIs" dxfId="25" priority="10" stopIfTrue="1" operator="greaterThanOrEqual">
-      <formula>15</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="11" stopIfTrue="1" operator="lessThan">
-      <formula>6</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="12" stopIfTrue="1" operator="lessThan">
-      <formula>15</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L3:L17">
-    <cfRule type="cellIs" dxfId="22" priority="8" stopIfTrue="1" operator="greaterThan">
+  <conditionalFormatting sqref="L3:L4 L6">
+    <cfRule type="cellIs" dxfId="37" priority="41" stopIfTrue="1" operator="greaterThan">
       <formula>$G$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="9" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="36" priority="42" stopIfTrue="1" operator="lessThan">
       <formula>$G$1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C18:C22">
-    <cfRule type="cellIs" dxfId="20" priority="3" stopIfTrue="1" operator="greaterThanOrEqual">
-      <formula>15</formula>
+  <conditionalFormatting sqref="L5">
+    <cfRule type="cellIs" dxfId="34" priority="31" stopIfTrue="1" operator="greaterThan">
+      <formula>$G$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="4" stopIfTrue="1" operator="lessThan">
-      <formula>6</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="5" stopIfTrue="1" operator="lessThan">
-      <formula>15</formula>
+    <cfRule type="cellIs" dxfId="33" priority="32" stopIfTrue="1" operator="lessThan">
+      <formula>$G$1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L18:L22">
-    <cfRule type="cellIs" dxfId="17" priority="1" stopIfTrue="1" operator="greaterThan">
+  <conditionalFormatting sqref="L7">
+    <cfRule type="cellIs" dxfId="31" priority="28" stopIfTrue="1" operator="greaterThan">
       <formula>$G$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="2" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="30" priority="29" stopIfTrue="1" operator="lessThan">
+      <formula>$G$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L9">
+    <cfRule type="cellIs" dxfId="28" priority="22" stopIfTrue="1" operator="greaterThan">
+      <formula>$G$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="27" priority="23" stopIfTrue="1" operator="lessThan">
+      <formula>$G$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L10">
+    <cfRule type="cellIs" dxfId="25" priority="19" stopIfTrue="1" operator="greaterThan">
+      <formula>$G$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="24" priority="20" stopIfTrue="1" operator="lessThan">
+      <formula>$G$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L12">
+    <cfRule type="cellIs" dxfId="22" priority="13" stopIfTrue="1" operator="greaterThan">
+      <formula>$G$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="21" priority="14" stopIfTrue="1" operator="lessThan">
+      <formula>$G$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L13">
+    <cfRule type="cellIs" dxfId="19" priority="10" stopIfTrue="1" operator="greaterThan">
+      <formula>$G$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="18" priority="11" stopIfTrue="1" operator="lessThan">
+      <formula>$G$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L14">
+    <cfRule type="cellIs" dxfId="16" priority="7" stopIfTrue="1" operator="greaterThan">
+      <formula>$G$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="15" priority="8" stopIfTrue="1" operator="lessThan">
+      <formula>$G$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L8">
+    <cfRule type="cellIs" dxfId="13" priority="4" stopIfTrue="1" operator="greaterThan">
+      <formula>$G$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="5" stopIfTrue="1" operator="lessThan">
+      <formula>$G$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L11">
+    <cfRule type="cellIs" dxfId="10" priority="1" stopIfTrue="1" operator="greaterThan">
+      <formula>$G$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="2" stopIfTrue="1" operator="lessThan">
       <formula>$G$1</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H22" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H14" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>EAR</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="E3:E22" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="E3:E14" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>Probabilidade</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="F3:F22" xr:uid="{00000000-0002-0000-0100-000002000000}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="F3:F14" xr:uid="{00000000-0002-0000-0100-000002000000}">
       <formula1>Impacto</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I3:I22" xr:uid="{00000000-0002-0000-0100-000003000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I3:I14" xr:uid="{00000000-0002-0000-0100-000003000000}">
       <formula1>Acao</formula1>
     </dataValidation>
   </dataValidations>
@@ -11859,7 +12101,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="51" stopIfTrue="1" id="{F0032D8F-20A5-4872-97E4-E52313B209A3}">
+          <x14:cfRule type="expression" priority="84" stopIfTrue="1" id="{F0032D8F-20A5-4872-97E4-E52313B209A3}">
             <xm:f>$M3=Param!#REF!</xm:f>
             <x14:dxf>
               <font>
@@ -11873,11 +12115,11 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>L3:L17</xm:sqref>
+          <xm:sqref>L3:L4 L6</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="6" stopIfTrue="1" id="{FEF48CD6-7EB7-422A-924E-2D522FF40BE6}">
-            <xm:f>$M18=Param!#REF!</xm:f>
+          <x14:cfRule type="expression" priority="33" stopIfTrue="1" id="{2E872CA3-EBD5-42FC-80B2-F18055B57997}">
+            <xm:f>$M5=Param!#REF!</xm:f>
             <x14:dxf>
               <font>
                 <color indexed="9"/>
@@ -11890,7 +12132,143 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>L18:L22</xm:sqref>
+          <xm:sqref>L5</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="30" stopIfTrue="1" id="{8708324C-E87E-48B1-9558-A1878061AA1D}">
+            <xm:f>$M7=Param!#REF!</xm:f>
+            <x14:dxf>
+              <font>
+                <color indexed="9"/>
+              </font>
+              <fill>
+                <patternFill patternType="solid">
+                  <fgColor indexed="64"/>
+                  <bgColor indexed="62"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>L7</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="24" stopIfTrue="1" id="{4CDAAF26-3BB5-4981-ACB8-5DA64E6ED61D}">
+            <xm:f>$M9=Param!#REF!</xm:f>
+            <x14:dxf>
+              <font>
+                <color indexed="9"/>
+              </font>
+              <fill>
+                <patternFill patternType="solid">
+                  <fgColor indexed="64"/>
+                  <bgColor indexed="62"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>L9</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="21" stopIfTrue="1" id="{5CADD8FE-098C-459F-A97B-9D320E9FBC25}">
+            <xm:f>$M10=Param!#REF!</xm:f>
+            <x14:dxf>
+              <font>
+                <color indexed="9"/>
+              </font>
+              <fill>
+                <patternFill patternType="solid">
+                  <fgColor indexed="64"/>
+                  <bgColor indexed="62"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>L10</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="15" stopIfTrue="1" id="{FABAC4E5-9711-4507-8274-917493BFDE74}">
+            <xm:f>$M12=Param!#REF!</xm:f>
+            <x14:dxf>
+              <font>
+                <color indexed="9"/>
+              </font>
+              <fill>
+                <patternFill patternType="solid">
+                  <fgColor indexed="64"/>
+                  <bgColor indexed="62"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>L12</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="12" stopIfTrue="1" id="{A1A11B33-449E-432D-B368-444C4CAB1BAA}">
+            <xm:f>$M13=Param!#REF!</xm:f>
+            <x14:dxf>
+              <font>
+                <color indexed="9"/>
+              </font>
+              <fill>
+                <patternFill patternType="solid">
+                  <fgColor indexed="64"/>
+                  <bgColor indexed="62"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>L13</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="9" stopIfTrue="1" id="{EC9C33A6-A169-4B70-AA52-3C19C333B1DD}">
+            <xm:f>$M14=Param!#REF!</xm:f>
+            <x14:dxf>
+              <font>
+                <color indexed="9"/>
+              </font>
+              <fill>
+                <patternFill patternType="solid">
+                  <fgColor indexed="64"/>
+                  <bgColor indexed="62"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>L14</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="6" stopIfTrue="1" id="{B883FD2C-0FB5-48D4-AEAC-5773CAC64754}">
+            <xm:f>$M8=Param!#REF!</xm:f>
+            <x14:dxf>
+              <font>
+                <color indexed="9"/>
+              </font>
+              <fill>
+                <patternFill patternType="solid">
+                  <fgColor indexed="64"/>
+                  <bgColor indexed="62"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>L8</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="3" stopIfTrue="1" id="{2EE13343-B800-4742-B2E2-7765A81313FF}">
+            <xm:f>$M11=Param!#REF!</xm:f>
+            <x14:dxf>
+              <font>
+                <color indexed="9"/>
+              </font>
+              <fill>
+                <patternFill patternType="solid">
+                  <fgColor indexed="64"/>
+                  <bgColor indexed="62"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>L11</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -11901,292 +12279,391 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="B1:J21"/>
+  <dimension ref="B1:I19"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView showGridLines="0" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.28515625" style="6" customWidth="1"/>
     <col min="2" max="2" width="6" style="26" customWidth="1"/>
-    <col min="3" max="3" width="6" style="6" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" style="6" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="46.42578125" style="6" customWidth="1"/>
     <col min="5" max="5" width="38.28515625" style="6" customWidth="1"/>
     <col min="6" max="6" width="12.85546875" style="6" customWidth="1"/>
-    <col min="7" max="7" width="9.7109375" style="6" customWidth="1"/>
-    <col min="8" max="9" width="9.140625" style="6"/>
-    <col min="10" max="10" width="23.85546875" style="6" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="6"/>
+    <col min="7" max="7" width="10.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.140625" style="6" customWidth="1"/>
+    <col min="9" max="9" width="23.85546875" style="6" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B1" s="18"/>
       <c r="C1" s="19"/>
       <c r="D1" s="19"/>
       <c r="G1" s="20"/>
     </row>
-    <row r="2" spans="2:10" s="21" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" s="21" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B2" s="40" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C2" s="36" t="s">
+        <v>112</v>
+      </c>
+      <c r="D2" s="36" t="s">
+        <v>77</v>
+      </c>
+      <c r="E2" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="36" t="s">
-        <v>80</v>
-      </c>
-      <c r="E2" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="F2" s="36" t="s">
-        <v>1</v>
-      </c>
-      <c r="G2" s="36" t="s">
-        <v>9</v>
-      </c>
       <c r="H2" s="36" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I2" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="36" t="s">
-        <v>10</v>
-      </c>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B3" s="22">
         <v>1</v>
       </c>
-      <c r="C3" s="8"/>
+      <c r="C3" s="8" t="s">
+        <v>27</v>
+      </c>
       <c r="D3" s="8" t="str">
-        <f>IF(B3="","",VLOOKUP(B3,Riscos!$B$3:$D$30,3,FALSE))</f>
+        <f>IF(B3="","",VLOOKUP(B3,Riscos!$B$3:$D$22,3,FALSE))</f>
         <v>O não cumprimento das datas previstas</v>
       </c>
-      <c r="E3" s="23"/>
+      <c r="E3" s="23" t="s">
+        <v>98</v>
+      </c>
       <c r="F3" s="23" t="s">
-        <v>90</v>
-      </c>
-      <c r="G3" s="24"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
+        <v>110</v>
+      </c>
+      <c r="G3" s="116">
+        <v>44144</v>
+      </c>
+      <c r="H3" s="116">
+        <v>44144</v>
+      </c>
+      <c r="I3" s="23" t="s">
+        <v>113</v>
+      </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B4" s="22">
         <v>2</v>
       </c>
-      <c r="C4" s="8"/>
+      <c r="C4" s="8" t="s">
+        <v>26</v>
+      </c>
       <c r="D4" s="8" t="str">
-        <f>IF(B4="","",VLOOKUP(B4,Riscos!$B$3:$D$30,3,FALSE))</f>
+        <f>IF(B4="","",VLOOKUP(B4,Riscos!$B$3:$D$22,3,FALSE))</f>
         <v>Falta de comunicação entre a equipe e o cliente</v>
       </c>
-      <c r="E4" s="23"/>
+      <c r="E4" s="23" t="s">
+        <v>99</v>
+      </c>
       <c r="F4" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="G4" s="24"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
+        <v>110</v>
+      </c>
+      <c r="G4" s="116">
+        <v>44151</v>
+      </c>
+      <c r="H4" s="116">
+        <v>44151</v>
+      </c>
+      <c r="I4" s="23" t="s">
+        <v>114</v>
+      </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B5" s="22">
         <v>3</v>
       </c>
-      <c r="C5" s="8"/>
+      <c r="C5" s="8" t="s">
+        <v>26</v>
+      </c>
       <c r="D5" s="8" t="str">
-        <f>IF(B5="","",VLOOKUP(B5,Riscos!$B$3:$D$30,3,FALSE))</f>
+        <f>IF(B5="","",VLOOKUP(B5,Riscos!$B$3:$D$22,3,FALSE))</f>
         <v>Não entrega do mvp</v>
       </c>
-      <c r="E5" s="23"/>
+      <c r="E5" s="23" t="s">
+        <v>98</v>
+      </c>
       <c r="F5" s="23" t="s">
-        <v>90</v>
-      </c>
-      <c r="G5" s="24"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
+        <v>110</v>
+      </c>
+      <c r="G5" s="116">
+        <v>44151</v>
+      </c>
+      <c r="H5" s="116">
+        <v>44151</v>
+      </c>
+      <c r="I5" s="23" t="s">
+        <v>114</v>
+      </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B6" s="22">
         <v>4</v>
       </c>
-      <c r="C6" s="8"/>
+      <c r="C6" s="8" t="s">
+        <v>27</v>
+      </c>
       <c r="D6" s="8" t="str">
-        <f>IF(B6="","",VLOOKUP(B6,Riscos!$B$3:$D$30,3,FALSE))</f>
+        <f>IF(B6="","",VLOOKUP(B6,Riscos!$B$3:$D$22,3,FALSE))</f>
         <v>Conflitos entre a equipe</v>
       </c>
-      <c r="E6" s="23"/>
+      <c r="E6" s="23" t="s">
+        <v>94</v>
+      </c>
       <c r="F6" s="23" t="s">
-        <v>92</v>
-      </c>
-      <c r="G6" s="24"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
+        <v>111</v>
+      </c>
+      <c r="G6" s="116" t="s">
+        <v>115</v>
+      </c>
+      <c r="H6" s="116" t="s">
+        <v>115</v>
+      </c>
+      <c r="I6" s="23" t="s">
+        <v>116</v>
+      </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B7" s="22">
         <v>5</v>
       </c>
-      <c r="C7" s="8"/>
+      <c r="C7" s="8" t="s">
+        <v>26</v>
+      </c>
       <c r="D7" s="8" t="str">
-        <f>IF(B7="","",VLOOKUP(B7,Riscos!$B$3:$D$30,3,FALSE))</f>
+        <f>IF(B7="","",VLOOKUP(B7,Riscos!$B$3:$D$22,3,FALSE))</f>
         <v>Novos requisitos</v>
       </c>
-      <c r="E7" s="23"/>
+      <c r="E7" s="23" t="s">
+        <v>98</v>
+      </c>
       <c r="F7" s="23" t="s">
-        <v>92</v>
-      </c>
-      <c r="G7" s="24"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
+        <v>111</v>
+      </c>
+      <c r="G7" s="116" t="s">
+        <v>115</v>
+      </c>
+      <c r="H7" s="116" t="s">
+        <v>115</v>
+      </c>
+      <c r="I7" s="23" t="s">
+        <v>116</v>
+      </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B8" s="22">
         <v>6</v>
       </c>
-      <c r="C8" s="8"/>
+      <c r="C8" s="8" t="s">
+        <v>26</v>
+      </c>
       <c r="D8" s="8" t="str">
-        <f>IF(B8="","",VLOOKUP(B8,Riscos!$B$3:$D$30,3,FALSE))</f>
-        <v>Problemas com a energia elétrica</v>
-      </c>
-      <c r="E8" s="23"/>
+        <f>IF(B8="","",VLOOKUP(B8,Riscos!$B$3:$D$22,3,FALSE))</f>
+        <v>Demissão de funcionários</v>
+      </c>
+      <c r="E8" s="23" t="s">
+        <v>93</v>
+      </c>
       <c r="F8" s="23" t="s">
-        <v>92</v>
-      </c>
-      <c r="G8" s="24"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
+        <v>110</v>
+      </c>
+      <c r="G8" s="116">
+        <v>44151</v>
+      </c>
+      <c r="H8" s="116">
+        <v>44151</v>
+      </c>
+      <c r="I8" s="23" t="s">
+        <v>114</v>
+      </c>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B9" s="22">
         <v>7</v>
       </c>
-      <c r="C9" s="8"/>
+      <c r="C9" s="8" t="s">
+        <v>27</v>
+      </c>
       <c r="D9" s="8" t="str">
-        <f>IF(B9="","",VLOOKUP(B9,Riscos!$B$3:$D$30,3,FALSE))</f>
-        <v>Problemas de conexão</v>
-      </c>
-      <c r="E9" s="23"/>
+        <f>IF(B9="","",VLOOKUP(B9,Riscos!$B$3:$D$22,3,FALSE))</f>
+        <v>Perda de arquivos</v>
+      </c>
+      <c r="E9" s="23" t="s">
+        <v>95</v>
+      </c>
       <c r="F9" s="23" t="s">
-        <v>92</v>
-      </c>
-      <c r="G9" s="24"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
+        <v>111</v>
+      </c>
+      <c r="G9" s="116" t="s">
+        <v>115</v>
+      </c>
+      <c r="H9" s="116" t="s">
+        <v>115</v>
+      </c>
+      <c r="I9" s="23" t="s">
+        <v>116</v>
+      </c>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B10" s="22">
         <v>8</v>
       </c>
-      <c r="C10" s="8"/>
+      <c r="C10" s="8" t="s">
+        <v>27</v>
+      </c>
       <c r="D10" s="8" t="str">
-        <f>IF(B10="","",VLOOKUP(B10,Riscos!$B$3:$D$30,3,FALSE))</f>
-        <v>Demissão de funcionários</v>
-      </c>
-      <c r="E10" s="23"/>
-      <c r="F10" s="23" t="s">
-        <v>90</v>
-      </c>
-      <c r="G10" s="24"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
+        <f>IF(B10="","",VLOOKUP(B10,Riscos!$B$3:$D$22,3,FALSE))</f>
+        <v>Falta de reuniões com a equipe</v>
+      </c>
+      <c r="E10" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="F10" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="G10" s="116" t="s">
+        <v>115</v>
+      </c>
+      <c r="H10" s="116" t="s">
+        <v>115</v>
+      </c>
+      <c r="I10" s="23" t="s">
+        <v>116</v>
+      </c>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B11" s="22">
         <v>9</v>
       </c>
-      <c r="C11" s="8"/>
+      <c r="C11" s="8" t="s">
+        <v>26</v>
+      </c>
       <c r="D11" s="8" t="str">
-        <f>IF(B11="","",VLOOKUP(B11,Riscos!$B$3:$D$30,3,FALSE))</f>
-        <v>Perda de arquivos</v>
-      </c>
-      <c r="E11" s="23"/>
-      <c r="F11" s="23" t="s">
-        <v>92</v>
-      </c>
-      <c r="G11" s="24"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
+        <f>IF(B11="","",VLOOKUP(B11,Riscos!$B$3:$D$22,3,FALSE))</f>
+        <v>Nenhuma gestão de risco</v>
+      </c>
+      <c r="E11" s="25" t="s">
+        <v>108</v>
+      </c>
+      <c r="F11" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="G11" s="116">
+        <v>44151</v>
+      </c>
+      <c r="H11" s="116">
+        <v>44151</v>
+      </c>
+      <c r="I11" s="23" t="s">
+        <v>114</v>
+      </c>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B12" s="22"/>
-      <c r="C12" s="8"/>
+    <row r="12" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B12" s="22">
+        <v>10</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>27</v>
+      </c>
       <c r="D12" s="8" t="str">
-        <f>IF(B12="","",VLOOKUP(B12,Riscos!$B$3:$D$30,3,FALSE))</f>
-        <v/>
-      </c>
-      <c r="E12" s="25"/>
-      <c r="F12" s="25"/>
-      <c r="G12" s="24"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
+        <f>IF(B12="","",VLOOKUP(B12,Riscos!$B$3:$D$22,3,FALSE))</f>
+        <v>Comunicação falha</v>
+      </c>
+      <c r="E12" s="113" t="s">
+        <v>109</v>
+      </c>
+      <c r="F12" s="113" t="s">
+        <v>111</v>
+      </c>
+      <c r="G12" s="116" t="s">
+        <v>115</v>
+      </c>
+      <c r="H12" s="116" t="s">
+        <v>115</v>
+      </c>
+      <c r="I12" s="23" t="s">
+        <v>116</v>
+      </c>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B13" s="22"/>
-      <c r="C13" s="8"/>
+    <row r="13" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B13" s="22">
+        <v>11</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>26</v>
+      </c>
       <c r="D13" s="8" t="str">
-        <f>IF(B13="","",VLOOKUP(B13,Riscos!$B$3:$D$30,3,FALSE))</f>
-        <v/>
-      </c>
-      <c r="E13" s="25"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="24"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
+        <f>IF(B13="","",VLOOKUP(B13,Riscos!$B$3:$D$22,3,FALSE))</f>
+        <v>Alteração no orçamento</v>
+      </c>
+      <c r="E13" s="113" t="s">
+        <v>97</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="G13" s="116" t="s">
+        <v>115</v>
+      </c>
+      <c r="H13" s="116" t="s">
+        <v>115</v>
+      </c>
+      <c r="I13" s="23" t="s">
+        <v>116</v>
+      </c>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B14" s="22"/>
-      <c r="C14" s="8"/>
+    <row r="14" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B14" s="22">
+        <v>12</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>26</v>
+      </c>
       <c r="D14" s="8" t="str">
-        <f>IF(B14="","",VLOOKUP(B14,Riscos!$B$3:$D$30,3,FALSE))</f>
-        <v/>
-      </c>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="24"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
+        <f>IF(B14="","",VLOOKUP(B14,Riscos!$B$3:$D$22,3,FALSE))</f>
+        <v>Improdutividade</v>
+      </c>
+      <c r="E14" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="G14" s="116" t="s">
+        <v>115</v>
+      </c>
+      <c r="H14" s="116" t="s">
+        <v>115</v>
+      </c>
+      <c r="I14" s="23" t="s">
+        <v>116</v>
+      </c>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B15" s="22"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8" t="str">
-        <f>IF(B15="","",VLOOKUP(B15,Riscos!$B$3:$D$30,3,FALSE))</f>
-        <v/>
-      </c>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="24"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="G15" s="27"/>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B16" s="22"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8" t="str">
-        <f>IF(B16="","",VLOOKUP(B16,Riscos!$B$3:$D$30,3,FALSE))</f>
-        <v/>
-      </c>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="24"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="G16" s="27"/>
     </row>
     <row r="17" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C17" s="12"/>
@@ -12201,71 +12678,41 @@
     <row r="19" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C19" s="12"/>
       <c r="D19" s="12"/>
-      <c r="G19" s="27"/>
-    </row>
-    <row r="20" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="G20" s="27"/>
-    </row>
-    <row r="21" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="H17:H21">
-    <cfRule type="cellIs" dxfId="13" priority="10" stopIfTrue="1" operator="equal">
-      <formula>"Ok"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="11" stopIfTrue="1" operator="equal">
-      <formula>"Pendente"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="12" stopIfTrue="1" operator="equal">
-      <formula>"Em andamento"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H3:H16">
-    <cfRule type="cellIs" dxfId="10" priority="7" stopIfTrue="1" operator="equal">
-      <formula>"Ok"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="8" stopIfTrue="1" operator="equal">
-      <formula>"Pendente"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="9" stopIfTrue="1" operator="equal">
-      <formula>"Em andamento"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G17:G20">
-    <cfRule type="cellIs" dxfId="7" priority="43" stopIfTrue="1" operator="greaterThan">
+  <conditionalFormatting sqref="G15:G18">
+    <cfRule type="cellIs" dxfId="7" priority="79" stopIfTrue="1" operator="greaterThan">
       <formula>$G$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="44" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="6" priority="80" stopIfTrue="1" operator="lessThan">
       <formula>$G$1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G3:G16">
-    <cfRule type="cellIs" dxfId="5" priority="2" stopIfTrue="1" operator="greaterThan">
+  <conditionalFormatting sqref="G3:G14">
+    <cfRule type="cellIs" dxfId="5" priority="4" stopIfTrue="1" operator="greaterThan">
       <formula>$G$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="3" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="4" priority="5" stopIfTrue="1" operator="lessThan">
       <formula>$G$1</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="5">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="H3:H16" xr:uid="{00000000-0002-0000-0200-000000000000}">
-      <formula1>Status</formula1>
+  <conditionalFormatting sqref="H3:H14">
+    <cfRule type="cellIs" dxfId="2" priority="1" stopIfTrue="1" operator="greaterThan">
+      <formula>$G$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="2" stopIfTrue="1" operator="lessThan">
+      <formula>$G$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="3">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C15:C19" xr:uid="{00000000-0002-0000-0200-000001000000}">
+      <formula1>$C$24:$C$24</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C17:C21" xr:uid="{00000000-0002-0000-0200-000001000000}">
-      <formula1>$C$26:$C$26</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="H17:H21" xr:uid="{00000000-0002-0000-0200-000002000000}">
-      <formula1>#REF!</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C3:C16" xr:uid="{00000000-0002-0000-0200-000003000000}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C3:C14" xr:uid="{00000000-0002-0000-0200-000003000000}">
       <formula1>Prioridade</formula1>
     </dataValidation>
-    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="D3:D21" xr:uid="{00000000-0002-0000-0200-000004000000}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="D3:D19" xr:uid="{00000000-0002-0000-0200-000004000000}"/>
   </dataValidations>
   <pageMargins left="0.23622047244094491" right="0.31496062992125984" top="0.59055118110236227" bottom="0.78740157480314965" header="0.11811023622047245" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -12279,7 +12726,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="46" stopIfTrue="1" id="{EA663E3A-665C-478B-A40F-29E78D523C35}">
+          <x14:cfRule type="expression" priority="6" stopIfTrue="1" id="{4FC06588-C6C6-48A3-ACD9-6547B12836CF}">
             <xm:f>$M3=Param!#REF!</xm:f>
             <x14:dxf>
               <font>
@@ -12293,7 +12740,24 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>G3:G16</xm:sqref>
+          <xm:sqref>G3:G14</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="3" stopIfTrue="1" id="{4DD7B97C-B939-4E51-99E5-BA2BB64092E5}">
+            <xm:f>$M3=Param!#REF!</xm:f>
+            <x14:dxf>
+              <font>
+                <color indexed="9"/>
+              </font>
+              <fill>
+                <patternFill patternType="solid">
+                  <fgColor indexed="64"/>
+                  <bgColor indexed="62"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>H3:H14</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -12319,10 +12783,10 @@
   <sheetData>
     <row r="2" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B2" s="41" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C2" s="109" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D2" s="109"/>
       <c r="E2" s="109"/>
@@ -12460,7 +12924,7 @@
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B8" s="41" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C8" s="8">
         <v>1</v>
@@ -12487,13 +12951,13 @@
     <mergeCell ref="C2:G2"/>
   </mergeCells>
   <conditionalFormatting sqref="C3:G7">
-    <cfRule type="cellIs" dxfId="2" priority="1" stopIfTrue="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="43" priority="1" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>15</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="42" priority="2" stopIfTrue="1" operator="lessThan">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="3" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="41" priority="3" stopIfTrue="1" operator="lessThan">
       <formula>15</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12513,8 +12977,8 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView showGridLines="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12539,8 +13003,8 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="B2:J11"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12548,179 +13012,179 @@
     <col min="1" max="1" width="3.7109375" style="6" customWidth="1"/>
     <col min="2" max="2" width="9.140625" style="6"/>
     <col min="3" max="3" width="10.28515625" style="6" customWidth="1"/>
-    <col min="4" max="4" width="9.85546875" style="6" customWidth="1"/>
+    <col min="4" max="4" width="24.85546875" style="6" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.42578125" style="6" customWidth="1"/>
     <col min="6" max="6" width="14" style="6" customWidth="1"/>
     <col min="7" max="7" width="18.28515625" style="6" customWidth="1"/>
     <col min="8" max="9" width="9.140625" style="6"/>
-    <col min="10" max="10" width="17.28515625" style="6" customWidth="1"/>
+    <col min="10" max="10" width="26.85546875" style="6" customWidth="1"/>
     <col min="11" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.25">
       <c r="D2" s="110" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E2" s="111"/>
       <c r="F2" s="111"/>
       <c r="G2" s="111"/>
       <c r="H2" s="112"/>
       <c r="I2" s="111" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="J2" s="111"/>
     </row>
     <row r="3" spans="2:10" ht="30" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C3" s="42" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D3" s="42" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E3" s="42" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F3" s="42" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G3" s="43" t="s">
+        <v>36</v>
+      </c>
+      <c r="H3" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="H3" s="44" t="s">
-        <v>6</v>
-      </c>
-      <c r="I3" s="39" t="s">
-        <v>42</v>
-      </c>
       <c r="J3" s="1" t="s">
-        <v>7</v>
+        <v>112</v>
       </c>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B4" s="7" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C4" s="7"/>
       <c r="D4" s="45" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
       <c r="I4" s="45" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="J4" s="7"/>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B5" s="7" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C5" s="49" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D5" s="9"/>
       <c r="E5" s="46" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F5" s="46" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H5" s="45" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B6" s="10"/>
       <c r="C6" s="12" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D6" s="13"/>
       <c r="E6" s="11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="H6" s="47" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I6" s="10"/>
       <c r="J6" s="10" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B7" s="10"/>
       <c r="C7" s="12" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D7" s="13"/>
       <c r="E7" s="11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H7" s="47" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I7" s="10"/>
       <c r="J7" s="10" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B8" s="10"/>
       <c r="C8" s="12" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D8" s="13"/>
       <c r="E8" s="11" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H8" s="47" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I8" s="10"/>
       <c r="J8" s="10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B9" s="10"/>
       <c r="C9" s="12" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D9" s="13"/>
       <c r="E9" s="11" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G9" s="10"/>
       <c r="H9" s="48"/>
@@ -12730,7 +13194,7 @@
     <row r="10" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B10" s="10"/>
       <c r="C10" s="12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D10" s="13"/>
       <c r="E10" s="10"/>
@@ -12765,4 +13229,234 @@
 http://escritoriodeprojetos.com.br</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100185D2593EB32D442ABC5525E306B9618" ma:contentTypeVersion="5" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="aa36e52a03b0581586d40c818a055fa0">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="0e1c3b93-57fe-438e-beb3-d7cf6e18d637" xmlns:ns4="d8707c2c-fefb-4096-974f-dfa147d3b598" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a47f4680c8e9ce76ac3453c3ea58e929" ns3:_="" ns4:_="">
+    <xsd:import namespace="0e1c3b93-57fe-438e-beb3-d7cf6e18d637"/>
+    <xsd:import namespace="d8707c2c-fefb-4096-974f-dfa147d3b598"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns3:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns4:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns4:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns4:SharingHintHash" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="0e1c3b93-57fe-438e-beb3-d7cf6e18d637" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="d8707c2c-fefb-4096-974f-dfa147d3b598" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="10" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="11" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="SharingHintHash" ma:index="12" nillable="true" ma:displayName="Sharing Hint Hash" ma:hidden="true" ma:internalName="SharingHintHash" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{08B5F44F-E92E-402B-B336-9171C09B4FBB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="0e1c3b93-57fe-438e-beb3-d7cf6e18d637"/>
+    <ds:schemaRef ds:uri="d8707c2c-fefb-4096-974f-dfa147d3b598"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2F6184A6-9472-47CC-9310-2F389E2BCB17}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E545C9F5-DD1C-4132-A14C-106E4FC03915}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="0e1c3b93-57fe-438e-beb3-d7cf6e18d637"/>
+    <ds:schemaRef ds:uri="d8707c2c-fefb-4096-974f-dfa147d3b598"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>